--- a/server/resource/excel/ExcelExport.xlsx
+++ b/server/resource/excel/ExcelExport.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE89B7DE-2C93-48FD-8CEC-AB113C1A539A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="true"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="8010" windowWidth="14805" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>ID</t>
   </si>
@@ -38,31 +37,76 @@
     <t>文件名称</t>
   </si>
   <si>
-    <t>https://www.gin-vue-admin.com</t>
+    <t>dashboard</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>/</t>
+    <t>view/dashboard/index.vue</t>
+  </si>
+  <si>
+    <t>reports</t>
+  </si>
+  <si>
+    <t>view/routerHolder.vue</t>
+  </si>
+  <si>
+    <t>superAdmin</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>view/superAdmin/index.vue</t>
+  </si>
+  <si>
+    <t>person</t>
+  </si>
+  <si>
+    <t>view/person/person.vue</t>
+  </si>
+  <si>
+    <t>systemTools</t>
+  </si>
+  <si>
+    <t>view/systemTools/index.vue</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>view/system/state.vue</t>
+  </si>
+  <si>
+    <t>about</t>
+  </si>
+  <si>
+    <t>view/about/index.vue</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>view/test/test.vue</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>view/example/index.vue</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -89,18 +133,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -361,16 +397,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="A3:I11"/>
-    </sheetView>
+    <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -393,9 +427,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -410,24 +444,196 @@
         <v>8</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3">
+      <c r="A3">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+      <c r="G8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="G9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <v>9</v>
+      </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/server/resource/excel/ExcelExport.xlsx
+++ b/server/resource/excel/ExcelExport.xlsx
@@ -14,87 +14,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>路由Name</t>
-  </si>
-  <si>
-    <t>路由Path</t>
-  </si>
-  <si>
-    <t>是否隐藏</t>
-  </si>
-  <si>
-    <t>父节点</t>
-  </si>
-  <si>
-    <t>排序</t>
-  </si>
-  <si>
-    <t>文件名称</t>
-  </si>
-  <si>
-    <t>dashboard</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>view/dashboard/index.vue</t>
-  </si>
-  <si>
-    <t>reports</t>
-  </si>
-  <si>
-    <t>view/routerHolder.vue</t>
-  </si>
-  <si>
-    <t>superAdmin</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>view/superAdmin/index.vue</t>
-  </si>
-  <si>
-    <t>person</t>
-  </si>
-  <si>
-    <t>view/person/person.vue</t>
-  </si>
-  <si>
-    <t>systemTools</t>
-  </si>
-  <si>
-    <t>view/systemTools/index.vue</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>view/system/state.vue</t>
-  </si>
-  <si>
-    <t>about</t>
-  </si>
-  <si>
-    <t>view/about/index.vue</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>view/test/test.vue</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>view/example/index.vue</t>
+    <t>所属地区</t>
+  </si>
+  <si>
+    <t>主机名</t>
+  </si>
+  <si>
+    <t>IP地址</t>
+  </si>
+  <si>
+    <t>顺德</t>
+  </si>
+  <si>
+    <t>主路由</t>
+  </si>
+  <si>
+    <t>192.168.123.1</t>
+  </si>
+  <si>
+    <t>AP-1</t>
+  </si>
+  <si>
+    <t>192.168.123.11</t>
+  </si>
+  <si>
+    <t>AP-2</t>
+  </si>
+  <si>
+    <t>192.168.123.22</t>
+  </si>
+  <si>
+    <t>AP-3</t>
+  </si>
+  <si>
+    <t>192.168.123.33</t>
+  </si>
+  <si>
+    <t>AP-4</t>
+  </si>
+  <si>
+    <t>192.168.123.44</t>
   </si>
 </sst>
 </file>
@@ -417,60 +381,33 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4">
@@ -478,160 +415,41 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5">
-        <v>4</v>
-      </c>
-      <c r="G5" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
         <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6">
-        <v>5</v>
-      </c>
-      <c r="G6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7">
-        <v>6</v>
-      </c>
-      <c r="G7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8">
-        <v>7</v>
-      </c>
-      <c r="G8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9">
-        <v>26</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9">
-        <v>8</v>
-      </c>
-      <c r="G9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10">
-        <v>9</v>
-      </c>
-      <c r="G10" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/server/resource/excel/ExcelExport.xlsx
+++ b/server/resource/excel/ExcelExport.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>ID</t>
   </si>
@@ -35,30 +35,6 @@
   </si>
   <si>
     <t>192.168.123.1</t>
-  </si>
-  <si>
-    <t>AP-1</t>
-  </si>
-  <si>
-    <t>192.168.123.11</t>
-  </si>
-  <si>
-    <t>AP-2</t>
-  </si>
-  <si>
-    <t>192.168.123.22</t>
-  </si>
-  <si>
-    <t>AP-3</t>
-  </si>
-  <si>
-    <t>192.168.123.33</t>
-  </si>
-  <si>
-    <t>AP-4</t>
-  </si>
-  <si>
-    <t>192.168.123.44</t>
   </si>
 </sst>
 </file>
@@ -396,62 +372,6 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/server/resource/excel/ExcelExport.xlsx
+++ b/server/resource/excel/ExcelExport.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>ID</t>
   </si>
@@ -35,6 +35,30 @@
   </si>
   <si>
     <t>192.168.123.1</t>
+  </si>
+  <si>
+    <t>AP-1</t>
+  </si>
+  <si>
+    <t>192.168.123.11</t>
+  </si>
+  <si>
+    <t>AP-2</t>
+  </si>
+  <si>
+    <t>192.168.123.22</t>
+  </si>
+  <si>
+    <t>AP-3</t>
+  </si>
+  <si>
+    <t>192.168.123.33</t>
+  </si>
+  <si>
+    <t>AP-4</t>
+  </si>
+  <si>
+    <t>192.168.123.44</t>
   </si>
 </sst>
 </file>
@@ -372,6 +396,62 @@
         <v>6</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/server/resource/excel/ExcelExport.xlsx
+++ b/server/resource/excel/ExcelExport.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t>所属地区</t>
   </si>
@@ -37,6 +34,12 @@
     <t>192.168.123.1</t>
   </si>
   <si>
+    <t>核心交换机</t>
+  </si>
+  <si>
+    <t>192.168.123.2</t>
+  </si>
+  <si>
     <t>AP-1</t>
   </si>
   <si>
@@ -49,7 +52,13 @@
     <t>192.168.123.22</t>
   </si>
   <si>
-    <t>AP-3</t>
+    <t>AP-3-1</t>
+  </si>
+  <si>
+    <t>192.168.123.30</t>
+  </si>
+  <si>
+    <t>AP-3-2</t>
   </si>
   <si>
     <t>192.168.123.33</t>
@@ -59,6 +68,222 @@
   </si>
   <si>
     <t>192.168.123.44</t>
+  </si>
+  <si>
+    <t>DesktopServer</t>
+  </si>
+  <si>
+    <t>192.168.123.66</t>
+  </si>
+  <si>
+    <t>NAS</t>
+  </si>
+  <si>
+    <t>192.168.123.100</t>
+  </si>
+  <si>
+    <t>ESXi</t>
+  </si>
+  <si>
+    <t>192.168.123.200</t>
+  </si>
+  <si>
+    <t>vCenter</t>
+  </si>
+  <si>
+    <t>192.168.123.201</t>
+  </si>
+  <si>
+    <t>JumpServer</t>
+  </si>
+  <si>
+    <t>192.168.123.202</t>
+  </si>
+  <si>
+    <t>反向代理rproxy</t>
+  </si>
+  <si>
+    <t>192.168.123.203</t>
+  </si>
+  <si>
+    <t>Zabbix-Proxy</t>
+  </si>
+  <si>
+    <t>192.168.123.205</t>
+  </si>
+  <si>
+    <t>Git</t>
+  </si>
+  <si>
+    <t>192.168.123.206</t>
+  </si>
+  <si>
+    <t>WizNote</t>
+  </si>
+  <si>
+    <t>192.168.123.207</t>
+  </si>
+  <si>
+    <t>Bitwarden</t>
+  </si>
+  <si>
+    <t>192.168.123.208</t>
+  </si>
+  <si>
+    <t>MySQL01</t>
+  </si>
+  <si>
+    <t>192.168.123.209</t>
+  </si>
+  <si>
+    <t>WinServer</t>
+  </si>
+  <si>
+    <t>192.168.123.212</t>
+  </si>
+  <si>
+    <t>MySQL02</t>
+  </si>
+  <si>
+    <t>192.168.123.213</t>
+  </si>
+  <si>
+    <t>Kibana</t>
+  </si>
+  <si>
+    <t>192.168.123.214</t>
+  </si>
+  <si>
+    <t>NMS-VIP</t>
+  </si>
+  <si>
+    <t>192.168.123.220</t>
+  </si>
+  <si>
+    <t>NMS01</t>
+  </si>
+  <si>
+    <t>192.168.123.221</t>
+  </si>
+  <si>
+    <t>NMS02</t>
+  </si>
+  <si>
+    <t>192.168.123.222</t>
+  </si>
+  <si>
+    <t>NMS03</t>
+  </si>
+  <si>
+    <t>192.168.123.223</t>
+  </si>
+  <si>
+    <t>k8s-master</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 192.168.125.10</t>
+  </si>
+  <si>
+    <t>k8s-master01</t>
+  </si>
+  <si>
+    <t>192.168.125.11</t>
+  </si>
+  <si>
+    <t>k8s-master02</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 192.168.125.12</t>
+  </si>
+  <si>
+    <t>k8s-master03</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 192.168.125.13</t>
+  </si>
+  <si>
+    <t>k8s-node01</t>
+  </si>
+  <si>
+    <t>192.168.125.21</t>
+  </si>
+  <si>
+    <t>k8s-node02</t>
+  </si>
+  <si>
+    <t>192.168.125.22</t>
+  </si>
+  <si>
+    <t>k8s-node03</t>
+  </si>
+  <si>
+    <t>192.168.125.23</t>
+  </si>
+  <si>
+    <t>k8s-etcd01</t>
+  </si>
+  <si>
+    <t>192.168.125.31</t>
+  </si>
+  <si>
+    <t>k8s-etcd02</t>
+  </si>
+  <si>
+    <t>192.168.125.32</t>
+  </si>
+  <si>
+    <t>k8s-etcd03</t>
+  </si>
+  <si>
+    <t>192.168.125.33</t>
+  </si>
+  <si>
+    <t>Jenkins01</t>
+  </si>
+  <si>
+    <t>192.168.125.217</t>
+  </si>
+  <si>
+    <t>Prometheus01</t>
+  </si>
+  <si>
+    <t>192.168.125.218</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>192.168.125.219</t>
+  </si>
+  <si>
+    <t>Horizon</t>
+  </si>
+  <si>
+    <t>192.168.125.220</t>
+  </si>
+  <si>
+    <t>Dev_Test</t>
+  </si>
+  <si>
+    <t>192.168.125.229</t>
+  </si>
+  <si>
+    <t>华为云-广州</t>
+  </si>
+  <si>
+    <t>hwcloud-vps</t>
+  </si>
+  <si>
+    <t>1.14.208.50</t>
+  </si>
+  <si>
+    <t>腾讯云-广州</t>
+  </si>
+  <si>
+    <t>qcloud-vps</t>
+  </si>
+  <si>
+    <t>139.9.221.46</t>
   </si>
 </sst>
 </file>
@@ -378,13 +603,10 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -392,64 +614,456 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" t="s">
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
         <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>87</v>
+      </c>
+      <c r="B43" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/server/resource/excel/ExcelExport.xlsx
+++ b/server/resource/excel/ExcelExport.xlsx
@@ -14,11 +14,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t>所属地区</t>
   </si>
   <si>
+    <t>类型</t>
+  </si>
+  <si>
     <t>主机名</t>
   </si>
   <si>
@@ -28,6 +31,9 @@
     <t>顺德</t>
   </si>
   <si>
+    <t>内网</t>
+  </si>
+  <si>
     <t>主路由</t>
   </si>
   <si>
@@ -52,6 +58,12 @@
     <t>192.168.123.22</t>
   </si>
   <si>
+    <t>IPTV-2</t>
+  </si>
+  <si>
+    <t>192.168.123.23</t>
+  </si>
+  <si>
     <t>AP-3-1</t>
   </si>
   <si>
@@ -76,6 +88,12 @@
     <t>192.168.123.66</t>
   </si>
   <si>
+    <t>IPTV-4</t>
+  </si>
+  <si>
+    <t>192.168.123.84</t>
+  </si>
+  <si>
     <t>NAS</t>
   </si>
   <si>
@@ -268,7 +286,10 @@
     <t>192.168.125.229</t>
   </si>
   <si>
-    <t>华为云-广州</t>
+    <t>广州</t>
+  </si>
+  <si>
+    <t>华为云</t>
   </si>
   <si>
     <t>hwcloud-vps</t>
@@ -277,7 +298,7 @@
     <t>1.14.208.50</t>
   </si>
   <si>
-    <t>腾讯云-广州</t>
+    <t>腾讯云</t>
   </si>
   <si>
     <t>qcloud-vps</t>
@@ -603,467 +624,624 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="D15" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="D16" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="D17" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="D18" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="D19" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="D20" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="D21" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="D22" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="D23" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="D24" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="D25" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="D26" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="D27" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="D28" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="D29" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="D30" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="D31" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>64</v>
+        <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="D32" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B33" t="s">
-        <v>66</v>
+        <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>67</v>
+        <v>68</v>
+      </c>
+      <c r="D33" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B34" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="D34" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B35" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="D35" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B36" t="s">
-        <v>72</v>
+        <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="D36" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B37" t="s">
-        <v>74</v>
+        <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="D37" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B38" t="s">
-        <v>76</v>
+        <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="D38" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B39" t="s">
-        <v>78</v>
+        <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="D39" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B40" t="s">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="C40" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="D40" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B41" t="s">
-        <v>82</v>
+        <v>5</v>
       </c>
       <c r="C41" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="D41" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>84</v>
+        <v>4</v>
       </c>
       <c r="B42" t="s">
-        <v>85</v>
+        <v>5</v>
       </c>
       <c r="C42" t="s">
         <v>86</v>
       </c>
+      <c r="D42" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>87</v>
+        <v>4</v>
       </c>
       <c r="B43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" t="s">
         <v>88</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>89</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>90</v>
+      </c>
+      <c r="B44" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44" t="s">
+        <v>92</v>
+      </c>
+      <c r="D44" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>90</v>
+      </c>
+      <c r="B45" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45" t="s">
+        <v>95</v>
+      </c>
+      <c r="D45" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
